--- a/GridCSVs/Data_Extraction01.xlsx
+++ b/GridCSVs/Data_Extraction01.xlsx
@@ -31,16 +31,16 @@
     <t>E-Mail</t>
   </si>
   <si>
-    <t xml:space="preserve">Invoice Number INV-3337 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">From: DEMO Sliced Invoices Suite 5A-1204 123 Somewhere Street Your City AZ 12345 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To: Test Business 123 Somewhere St Melbourne; VIC 3000 tocttoct Con </t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin@slicedinvoices, </t>
+    <t xml:space="preserve">Invoice Number INV-333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">From: DEMO Sliced Invoices Suite 5A-1204 123 Somewhere Street Your Citv 4Z 12345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To: Test Business 123 Somewhere St Melbourne, VIC 3000 testtest com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">test@test, admin@slicedinvoices, </t>
   </si>
 </sst>
 </file>

--- a/GridCSVs/Data_Extraction01.xlsx
+++ b/GridCSVs/Data_Extraction01.xlsx
@@ -31,13 +31,13 @@
     <t>E-Mail</t>
   </si>
   <si>
-    <t xml:space="preserve">Invoice Number INV-333 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">From: DEMO Sliced Invoices Suite 5A-1204 123 Somewhere Street Your Citv 4Z 12345 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To: Test Business 123 Somewhere St Melbourne, VIC 3000 testtest com </t>
+    <t xml:space="preserve">Invoice Number | INV-3337 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">From: DEMO - Sliced Invoices Suite 54-1204 123 Somewhere Street Vour City A7 12245 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To: Test Business 123 Somewhere St Melboume, VIC 3000 taat@taet anim </t>
   </si>
   <si>
     <t xml:space="preserve">test@test, admin@slicedinvoices, </t>

--- a/GridCSVs/Data_Extraction01.xlsx
+++ b/GridCSVs/Data_Extraction01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -31,19 +31,16 @@
     <t>E-Mail</t>
   </si>
   <si>
-    <t xml:space="preserve">Invoice No.: ST-18102021 Invoice Date: Oct 16th, 2021 Item HRS/Q </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FROM Star Media Ltd Ayush Sharma Star Media HQ. Sector 17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO ABC Company John § Smith </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234567899, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">johnsmith@gmail.com, ayush@star.com, </t>
+    <t xml:space="preserve">Invoice Number | INV-3337 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">From: DEMO - Sliced Invoices Suite 54-1204 123 Somewhere Street Your City AZ 12345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To: Test Business 123 Somewhere St Melboume, VIC 3000 test@test.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">test@test, </t>
   </si>
 </sst>
 </file>
@@ -421,11 +418,8 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/GridCSVs/Data_Extraction01.xlsx
+++ b/GridCSVs/Data_Extraction01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -31,16 +31,13 @@
     <t>E-Mail</t>
   </si>
   <si>
-    <t xml:space="preserve">Invoice Number | INV-3337 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">From: DEMO - Sliced Invoices Suite 54-1204 123 Somewhere Street Your City AZ 12345 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To: Test Business 123 Somewhere St Melboume, VIC 3000 test@test.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">test@test, </t>
+    <t xml:space="preserve">Invoice Number I |NV—3337 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">From: DEMO - Sliced Invoxces Suite 5A-1204 123 Somewhere Street Your City AZ 12845 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To: Test Business 123 Somewhere St Melbourne, VIC 3000 test@lest.c0m </t>
   </si>
 </sst>
 </file>
@@ -418,9 +415,6 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
